--- a/app/example/Sample_table.xlsx
+++ b/app/example/Sample_table.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab Code\muiModels\TableViewer\app\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C48299-13B2-4AF0-87C0-CA387DA5BA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588D423B-7AF4-463D-A668-F6FA000952D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="3340" windowWidth="28800" windowHeight="15370" xr2:uid="{E75D6545-09A3-43FC-B741-63C8009FCED5}"/>
+    <workbookView xWindow="46110" yWindow="2580" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{E75D6545-09A3-43FC-B741-63C8009FCED5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -132,6 +133,15 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Hmhw</t>
+  </si>
+  <si>
+    <t>Hmtl</t>
+  </si>
+  <si>
+    <t>Hmlw</t>
   </si>
 </sst>
 </file>
@@ -190,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -201,6 +211,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,11 +531,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8193AC-3170-46E9-A857-AB1E350E1D4D}">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="12.6328125" customWidth="1"/>
     <col min="4" max="4" width="13.90625" customWidth="1"/>
@@ -1095,4 +1111,190 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF138010-5F62-4C5A-A285-7D0937936B40}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2.5945477590820385</v>
+      </c>
+      <c r="C2" s="7">
+        <v>18.138109118982019</v>
+      </c>
+      <c r="D2" s="7">
+        <v>16.069336471565538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2.6007805710386314</v>
+      </c>
+      <c r="C3" s="7">
+        <v>5.0278214742332814</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2.8271043496454937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4.6442439823656851</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4.5542310462498845</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4.5509584694617597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4.3084554248826956</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3.4238383107056145</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.35342603388645066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7">
+        <v>11.571311126048059</v>
+      </c>
+      <c r="C6" s="7">
+        <v>9.481181257127977</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5.5095583550507792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.62011173184357538</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.4351598173515982</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.1673704414587332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1.7785714285714285</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1.2589285714285714</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.57796257796257799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2.5911602209944751</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2.1226415094339623</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.70107238605898126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2.6858638743455496</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2.407766990291262</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3.2123287671232879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="7">
+        <v>4.8039215686274508</v>
+      </c>
+      <c r="C11" s="7">
+        <v>5.1791044776119399</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3.484320557491289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2.4729241877256318</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1.3172413793103448</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>